--- a/data/trans_orig/P3A_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9FD43A-823C-45C5-A070-5AC03F154ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D7464E-91A8-4FED-B66E-9047D23F10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DA52A0D-7D88-466D-977B-79139EB28B02}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6A9E5D8-38F3-4B38-8FBB-82E37BD86182}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -101,7 +101,7 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>97,78%</t>
@@ -689,199 +689,205 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>95,79%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87591EB0-BFD6-4383-B002-BE9B9AED7D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57376BF5-B3D9-478E-9130-78F5630C13E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1930,7 +1936,7 @@
         <v>3080</v>
       </c>
       <c r="D14" s="7">
-        <v>3143226</v>
+        <v>3143225</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1945,7 +1951,7 @@
         <v>3191</v>
       </c>
       <c r="I14" s="7">
-        <v>3268361</v>
+        <v>3268360</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1981,7 +1987,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1996,7 +2002,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7187B2CB-A114-4835-9745-C9742185E7CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AFE485-3B38-4E15-8AD2-031BE1FADFA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2222,7 @@
         <v>857</v>
       </c>
       <c r="D5" s="7">
-        <v>920884</v>
+        <v>920883</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2246,7 +2252,7 @@
         <v>2019</v>
       </c>
       <c r="N5" s="7">
-        <v>2166337</v>
+        <v>2166338</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2267,7 +2273,7 @@
         <v>907</v>
       </c>
       <c r="D6" s="7">
-        <v>973584</v>
+        <v>973583</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2297,7 +2303,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310380</v>
+        <v>2310381</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2556,7 +2562,7 @@
         <v>781</v>
       </c>
       <c r="N11" s="7">
-        <v>861754</v>
+        <v>861755</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2607,7 +2613,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2711,7 +2717,7 @@
         <v>6229</v>
       </c>
       <c r="N14" s="7">
-        <v>6680247</v>
+        <v>6680246</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>156</v>
@@ -2762,7 +2768,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970952</v>
+        <v>6970951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A61C56C-5683-4404-8DF4-B4C271B01756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D54614-1E14-47A2-84C2-CE7DFE42907E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3158,7 @@
         <v>3809</v>
       </c>
       <c r="N8" s="7">
-        <v>4008052</v>
+        <v>4008051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -3203,7 +3209,7 @@
         <v>3854</v>
       </c>
       <c r="N9" s="7">
-        <v>4057332</v>
+        <v>4057331</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3432,7 +3438,7 @@
         <v>3125</v>
       </c>
       <c r="D14" s="7">
-        <v>3286418</v>
+        <v>3286419</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>206</v>
@@ -3483,7 +3489,7 @@
         <v>3207</v>
       </c>
       <c r="D15" s="7">
-        <v>3368576</v>
+        <v>3368577</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3546,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4EA430-0615-421D-95CC-390B984FFD4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6587A0-3E17-4BBF-9BFB-7F7FAE7009F8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3673,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>56079</v>
+        <v>53289</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>215</v>
@@ -3682,7 +3688,7 @@
         <v>221</v>
       </c>
       <c r="I4" s="7">
-        <v>118594</v>
+        <v>106410</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>218</v>
@@ -3697,7 +3703,7 @@
         <v>305</v>
       </c>
       <c r="N4" s="7">
-        <v>174673</v>
+        <v>159699</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>221</v>
@@ -3718,7 +3724,7 @@
         <v>607</v>
       </c>
       <c r="D5" s="7">
-        <v>485555</v>
+        <v>461649</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>224</v>
@@ -3733,7 +3739,7 @@
         <v>1206</v>
       </c>
       <c r="I5" s="7">
-        <v>717359</v>
+        <v>649098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>227</v>
@@ -3748,7 +3754,7 @@
         <v>1813</v>
       </c>
       <c r="N5" s="7">
-        <v>1202913</v>
+        <v>1110747</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>230</v>
@@ -3769,7 +3775,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3790,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3799,7 +3805,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3822,13 +3828,13 @@
         <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>50933</v>
+        <v>49345</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>234</v>
@@ -3837,7 +3843,7 @@
         <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>51834</v>
+        <v>47145</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>235</v>
@@ -3852,16 +3858,16 @@
         <v>146</v>
       </c>
       <c r="N7" s="7">
-        <v>102768</v>
+        <v>96490</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,46 +3879,46 @@
         <v>1932</v>
       </c>
       <c r="D8" s="7">
-        <v>2109925</v>
+        <v>2239883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>2831</v>
       </c>
       <c r="I8" s="7">
-        <v>2196324</v>
+        <v>2189419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>4763</v>
       </c>
       <c r="N8" s="7">
-        <v>4306247</v>
+        <v>4429302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3930,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160858</v>
+        <v>2289228</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3939,7 +3945,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248158</v>
+        <v>2236564</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3954,7 +3960,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4409015</v>
+        <v>4525792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3977,46 +3983,46 @@
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>48212</v>
+        <v>46255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>47436</v>
+        <v>43786</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>95648</v>
+        <v>90041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,46 +4034,46 @@
         <v>626</v>
       </c>
       <c r="D11" s="7">
-        <v>624827</v>
+        <v>600368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>930</v>
       </c>
       <c r="I11" s="7">
-        <v>666450</v>
+        <v>616677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>1556</v>
       </c>
       <c r="N11" s="7">
-        <v>1291278</v>
+        <v>1217045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4085,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4100,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4109,7 +4115,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4132,46 +4138,46 @@
         <v>197</v>
       </c>
       <c r="D13" s="7">
-        <v>155224</v>
+        <v>148889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>383</v>
       </c>
       <c r="I13" s="7">
-        <v>217865</v>
+        <v>197341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>580</v>
       </c>
       <c r="N13" s="7">
-        <v>373089</v>
+        <v>346230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,46 +4189,46 @@
         <v>3165</v>
       </c>
       <c r="D14" s="7">
-        <v>3220306</v>
+        <v>3301901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>4967</v>
       </c>
       <c r="I14" s="7">
-        <v>3580132</v>
+        <v>3455194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>8132</v>
       </c>
       <c r="N14" s="7">
-        <v>6800438</v>
+        <v>6757094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4240,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375530</v>
+        <v>3450790</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4249,7 +4255,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3797997</v>
+        <v>3652535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4264,7 +4270,7 @@
         <v>8712</v>
       </c>
       <c r="N15" s="7">
-        <v>7173527</v>
+        <v>7103324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
